--- a/data/Measurments.xlsx
+++ b/data/Measurments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\PycharmProjects\menu-cnf-lookup\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C778A304-605E-47AB-B95A-AC5D885B5D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36286F8B-9CA2-4A5A-A822-5A7F6D276336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3585" windowWidth="29040" windowHeight="17640" xr2:uid="{BEE4600B-4DFA-4C26-91EB-FB4EBF467AF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BEE4600B-4DFA-4C26-91EB-FB4EBF467AF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="29">
   <si>
     <t>MeasureDescription</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>1 large egg</t>
+  </si>
+  <si>
+    <t>65g</t>
+  </si>
+  <si>
+    <t>1 head, medium (14.5cm  dia)</t>
+  </si>
+  <si>
+    <t>1 cherry tomato</t>
   </si>
 </sst>
 </file>
@@ -489,918 +498,3174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CCE215-3E1C-483E-B2C4-E3517ECC0405}">
-  <dimension ref="A1:A361"/>
+  <dimension ref="A1:X371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s">
+        <v>3</v>
+      </c>
+      <c r="X16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" t="s">
+        <v>6</v>
+      </c>
+      <c r="X24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" t="s">
+        <v>2</v>
+      </c>
+      <c r="X26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s">
+        <v>4</v>
+      </c>
+      <c r="X27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" t="s">
+        <v>7</v>
+      </c>
+      <c r="R28" t="s">
+        <v>7</v>
+      </c>
+      <c r="X28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" t="s">
+        <v>7</v>
+      </c>
+      <c r="R29" t="s">
+        <v>7</v>
+      </c>
+      <c r="X29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" t="s">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s">
+        <v>5</v>
+      </c>
+      <c r="X34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="L36" t="s">
+        <v>6</v>
+      </c>
+      <c r="R36" t="s">
+        <v>6</v>
+      </c>
+      <c r="X36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" t="s">
+        <v>2</v>
+      </c>
+      <c r="R37" t="s">
+        <v>2</v>
+      </c>
+      <c r="X37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R38" t="s">
+        <v>2</v>
+      </c>
+      <c r="X38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="L39" t="s">
+        <v>4</v>
+      </c>
+      <c r="R39" t="s">
+        <v>4</v>
+      </c>
+      <c r="X39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L40" t="s">
+        <v>7</v>
+      </c>
+      <c r="R40" t="s">
+        <v>7</v>
+      </c>
+      <c r="X40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" t="s">
+        <v>7</v>
+      </c>
+      <c r="R41" t="s">
+        <v>7</v>
+      </c>
+      <c r="X41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" t="s">
+        <v>8</v>
+      </c>
+      <c r="X45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" t="s">
+        <v>2</v>
+      </c>
+      <c r="R46" t="s">
+        <v>2</v>
+      </c>
+      <c r="X46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" t="s">
+        <v>3</v>
+      </c>
+      <c r="X47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" t="s">
+        <v>3</v>
+      </c>
+      <c r="X49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+      <c r="L50" t="s">
+        <v>3</v>
+      </c>
+      <c r="R50" t="s">
+        <v>3</v>
+      </c>
+      <c r="X50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1</v>
+      </c>
+      <c r="R54" t="s">
+        <v>1</v>
+      </c>
+      <c r="X54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>2</v>
+      </c>
+      <c r="L55" t="s">
+        <v>2</v>
+      </c>
+      <c r="R55" t="s">
+        <v>2</v>
+      </c>
+      <c r="X55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>3</v>
+      </c>
+      <c r="L56" t="s">
+        <v>3</v>
+      </c>
+      <c r="R56" t="s">
+        <v>3</v>
+      </c>
+      <c r="X56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" t="s">
+        <v>3</v>
+      </c>
+      <c r="X58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" t="s">
+        <v>3</v>
+      </c>
+      <c r="X59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
+        <v>1</v>
+      </c>
+      <c r="R63" t="s">
+        <v>1</v>
+      </c>
+      <c r="X63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>2</v>
+      </c>
+      <c r="L64" t="s">
+        <v>2</v>
+      </c>
+      <c r="R64" t="s">
+        <v>2</v>
+      </c>
+      <c r="X64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>3</v>
+      </c>
+      <c r="L65" t="s">
+        <v>3</v>
+      </c>
+      <c r="R65" t="s">
+        <v>3</v>
+      </c>
+      <c r="X65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" t="s">
+        <v>4</v>
+      </c>
+      <c r="X66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>3</v>
+      </c>
+      <c r="L67" t="s">
+        <v>3</v>
+      </c>
+      <c r="R67" t="s">
+        <v>3</v>
+      </c>
+      <c r="X67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>3</v>
+      </c>
+      <c r="L68" t="s">
+        <v>3</v>
+      </c>
+      <c r="R68" t="s">
+        <v>3</v>
+      </c>
+      <c r="X68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+      <c r="R74" t="s">
+        <v>2</v>
+      </c>
+      <c r="X74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="L75" t="s">
+        <v>9</v>
+      </c>
+      <c r="R75" t="s">
+        <v>9</v>
+      </c>
+      <c r="X75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" t="s">
+        <v>10</v>
+      </c>
+      <c r="R76" t="s">
+        <v>10</v>
+      </c>
+      <c r="X76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="L77" t="s">
+        <v>10</v>
+      </c>
+      <c r="R77" t="s">
+        <v>10</v>
+      </c>
+      <c r="X77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L78" t="s">
+        <v>10</v>
+      </c>
+      <c r="R78" t="s">
+        <v>10</v>
+      </c>
+      <c r="X78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>7</v>
+      </c>
+      <c r="L91" t="s">
+        <v>2</v>
+      </c>
+      <c r="R91" t="s">
+        <v>2</v>
+      </c>
+      <c r="X91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>3</v>
+      </c>
+      <c r="L92" t="s">
+        <v>7</v>
+      </c>
+      <c r="R92" t="s">
+        <v>7</v>
+      </c>
+      <c r="X92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>4</v>
+      </c>
+      <c r="L93" t="s">
+        <v>3</v>
+      </c>
+      <c r="R93" t="s">
+        <v>3</v>
+      </c>
+      <c r="X93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+      <c r="L94" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>2</v>
+      </c>
+      <c r="L95" t="s">
+        <v>11</v>
+      </c>
+      <c r="R95" t="s">
+        <v>11</v>
+      </c>
+      <c r="X95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+      <c r="L96" t="s">
+        <v>2</v>
+      </c>
+      <c r="R96" t="s">
+        <v>2</v>
+      </c>
+      <c r="X96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L97" t="s">
+        <v>11</v>
+      </c>
+      <c r="R97" t="s">
+        <v>11</v>
+      </c>
+      <c r="X97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>11</v>
+      </c>
+      <c r="L101" t="s">
+        <v>10</v>
+      </c>
+      <c r="R101" t="s">
+        <v>10</v>
+      </c>
+      <c r="X101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>7</v>
+      </c>
+      <c r="L102" t="s">
+        <v>11</v>
+      </c>
+      <c r="R102" t="s">
+        <v>11</v>
+      </c>
+      <c r="X102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>3</v>
+      </c>
+      <c r="L103" t="s">
+        <v>7</v>
+      </c>
+      <c r="R103" t="s">
+        <v>7</v>
+      </c>
+      <c r="X103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>4</v>
+      </c>
+      <c r="L104" t="s">
+        <v>3</v>
+      </c>
+      <c r="R104" t="s">
+        <v>3</v>
+      </c>
+      <c r="X104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+      <c r="L105" t="s">
+        <v>4</v>
+      </c>
+      <c r="R105" t="s">
+        <v>4</v>
+      </c>
+      <c r="X105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>2</v>
+      </c>
+      <c r="L106" t="s">
+        <v>11</v>
+      </c>
+      <c r="R106" t="s">
+        <v>11</v>
+      </c>
+      <c r="X106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>11</v>
+      </c>
+      <c r="L107" t="s">
+        <v>2</v>
+      </c>
+      <c r="R107" t="s">
+        <v>2</v>
+      </c>
+      <c r="X107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L108" t="s">
+        <v>11</v>
+      </c>
+      <c r="R108" t="s">
+        <v>11</v>
+      </c>
+      <c r="X108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L113" t="s">
+        <v>12</v>
+      </c>
+      <c r="R113" t="s">
+        <v>12</v>
+      </c>
+      <c r="X113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>7</v>
+      </c>
+      <c r="L115" t="s">
+        <v>11</v>
+      </c>
+      <c r="R115" t="s">
+        <v>11</v>
+      </c>
+      <c r="X115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>3</v>
+      </c>
+      <c r="L116" t="s">
+        <v>7</v>
+      </c>
+      <c r="R116" t="s">
+        <v>7</v>
+      </c>
+      <c r="X116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>4</v>
+      </c>
+      <c r="L117" t="s">
+        <v>3</v>
+      </c>
+      <c r="R117" t="s">
+        <v>3</v>
+      </c>
+      <c r="X117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>11</v>
+      </c>
+      <c r="L118" t="s">
+        <v>4</v>
+      </c>
+      <c r="R118" t="s">
+        <v>4</v>
+      </c>
+      <c r="X118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>2</v>
+      </c>
+      <c r="L119" t="s">
+        <v>11</v>
+      </c>
+      <c r="R119" t="s">
+        <v>11</v>
+      </c>
+      <c r="X119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>11</v>
+      </c>
+      <c r="L120" t="s">
+        <v>2</v>
+      </c>
+      <c r="R120" t="s">
+        <v>2</v>
+      </c>
+      <c r="X120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L121" t="s">
+        <v>11</v>
+      </c>
+      <c r="R121" t="s">
+        <v>11</v>
+      </c>
+      <c r="X121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F126" t="s">
+        <v>11</v>
+      </c>
+      <c r="L126" t="s">
+        <v>13</v>
+      </c>
+      <c r="R126" t="s">
+        <v>13</v>
+      </c>
+      <c r="X126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F127" t="s">
+        <v>7</v>
+      </c>
+      <c r="L127" t="s">
+        <v>11</v>
+      </c>
+      <c r="R127" t="s">
+        <v>11</v>
+      </c>
+      <c r="X127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
+        <v>3</v>
+      </c>
+      <c r="L128" t="s">
+        <v>7</v>
+      </c>
+      <c r="R128" t="s">
+        <v>7</v>
+      </c>
+      <c r="X128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>4</v>
+      </c>
+      <c r="L129" t="s">
+        <v>3</v>
+      </c>
+      <c r="R129" t="s">
+        <v>3</v>
+      </c>
+      <c r="X129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F130" t="s">
+        <v>11</v>
+      </c>
+      <c r="L130" t="s">
+        <v>4</v>
+      </c>
+      <c r="R130" t="s">
+        <v>4</v>
+      </c>
+      <c r="X130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>2</v>
+      </c>
+      <c r="L131" t="s">
+        <v>11</v>
+      </c>
+      <c r="R131" t="s">
+        <v>11</v>
+      </c>
+      <c r="X131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F132" t="s">
+        <v>11</v>
+      </c>
+      <c r="L132" t="s">
+        <v>2</v>
+      </c>
+      <c r="R132" t="s">
+        <v>2</v>
+      </c>
+      <c r="X132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L133" t="s">
+        <v>11</v>
+      </c>
+      <c r="R133" t="s">
+        <v>11</v>
+      </c>
+      <c r="X133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F138" t="s">
+        <v>4</v>
+      </c>
+      <c r="L138" t="s">
+        <v>2</v>
+      </c>
+      <c r="R138" t="s">
+        <v>2</v>
+      </c>
+      <c r="X138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>11</v>
+      </c>
+      <c r="L139" t="s">
+        <v>4</v>
+      </c>
+      <c r="R139" t="s">
+        <v>4</v>
+      </c>
+      <c r="X139" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F140" t="s">
+        <v>3</v>
+      </c>
+      <c r="L140" t="s">
+        <v>11</v>
+      </c>
+      <c r="R140" t="s">
+        <v>11</v>
+      </c>
+      <c r="X140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F141" t="s">
+        <v>4</v>
+      </c>
+      <c r="L141" t="s">
+        <v>3</v>
+      </c>
+      <c r="R141" t="s">
+        <v>3</v>
+      </c>
+      <c r="X141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F142" t="s">
+        <v>11</v>
+      </c>
+      <c r="L142" t="s">
+        <v>4</v>
+      </c>
+      <c r="R142" t="s">
+        <v>4</v>
+      </c>
+      <c r="X142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F143" t="s">
+        <v>2</v>
+      </c>
+      <c r="L143" t="s">
+        <v>11</v>
+      </c>
+      <c r="R143" t="s">
+        <v>11</v>
+      </c>
+      <c r="X143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F144" t="s">
+        <v>11</v>
+      </c>
+      <c r="L144" t="s">
+        <v>2</v>
+      </c>
+      <c r="R144" t="s">
+        <v>2</v>
+      </c>
+      <c r="X144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L145" t="s">
+        <v>11</v>
+      </c>
+      <c r="R145" t="s">
+        <v>11</v>
+      </c>
+      <c r="X145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F151" t="s">
+        <v>11</v>
+      </c>
+      <c r="L151" t="s">
+        <v>5</v>
+      </c>
+      <c r="R151" t="s">
+        <v>5</v>
+      </c>
+      <c r="X151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F152" t="s">
+        <v>2</v>
+      </c>
+      <c r="L152" t="s">
+        <v>11</v>
+      </c>
+      <c r="R152" t="s">
+        <v>11</v>
+      </c>
+      <c r="X152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F153" t="s">
+        <v>4</v>
+      </c>
+      <c r="L153" t="s">
+        <v>2</v>
+      </c>
+      <c r="R153" t="s">
+        <v>2</v>
+      </c>
+      <c r="X153" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F154" t="s">
+        <v>2</v>
+      </c>
+      <c r="L154" t="s">
+        <v>4</v>
+      </c>
+      <c r="R154" t="s">
+        <v>4</v>
+      </c>
+      <c r="X154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F155" t="s">
+        <v>2</v>
+      </c>
+      <c r="L155" t="s">
+        <v>2</v>
+      </c>
+      <c r="R155" t="s">
+        <v>2</v>
+      </c>
+      <c r="X155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F156" t="s">
+        <v>11</v>
+      </c>
+      <c r="L156" t="s">
+        <v>2</v>
+      </c>
+      <c r="R156" t="s">
+        <v>2</v>
+      </c>
+      <c r="X156" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R157" t="s">
+        <v>11</v>
+      </c>
+      <c r="X157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F161" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F162" t="s">
+        <v>11</v>
+      </c>
+      <c r="L162" t="s">
+        <v>2</v>
+      </c>
+      <c r="R162" t="s">
+        <v>2</v>
+      </c>
+      <c r="X162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F163" t="s">
+        <v>3</v>
+      </c>
+      <c r="L163" t="s">
+        <v>11</v>
+      </c>
+      <c r="R163" t="s">
+        <v>11</v>
+      </c>
+      <c r="X163" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F164" t="s">
+        <v>2</v>
+      </c>
+      <c r="L164" t="s">
+        <v>3</v>
+      </c>
+      <c r="R164" t="s">
+        <v>3</v>
+      </c>
+      <c r="X164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F165" t="s">
+        <v>2</v>
+      </c>
+      <c r="L165" t="s">
+        <v>2</v>
+      </c>
+      <c r="R165" t="s">
+        <v>2</v>
+      </c>
+      <c r="X165" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F166" t="s">
+        <v>14</v>
+      </c>
+      <c r="L166" t="s">
+        <v>2</v>
+      </c>
+      <c r="R166" t="s">
+        <v>2</v>
+      </c>
+      <c r="X166" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L167" t="s">
+        <v>14</v>
+      </c>
+      <c r="R167" t="s">
+        <v>14</v>
+      </c>
+      <c r="X167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F171" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F172" t="s">
+        <v>2</v>
+      </c>
+      <c r="L172" t="s">
+        <v>12</v>
+      </c>
+      <c r="R172" t="s">
+        <v>12</v>
+      </c>
+      <c r="X172" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L173" t="s">
+        <v>2</v>
+      </c>
+      <c r="R173" t="s">
+        <v>2</v>
+      </c>
+      <c r="X173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F175" t="s">
+        <v>4</v>
+      </c>
+      <c r="L175" t="s">
+        <v>3</v>
+      </c>
+      <c r="R175" t="s">
+        <v>3</v>
+      </c>
+      <c r="X175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F176" t="s">
+        <v>2</v>
+      </c>
+      <c r="L176" t="s">
+        <v>4</v>
+      </c>
+      <c r="R176" t="s">
+        <v>4</v>
+      </c>
+      <c r="X176" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L177" t="s">
+        <v>2</v>
+      </c>
+      <c r="R177" t="s">
+        <v>2</v>
+      </c>
+      <c r="X177" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F181" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L182" t="s">
+        <v>3</v>
+      </c>
+      <c r="R182" t="s">
+        <v>3</v>
+      </c>
+      <c r="X182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L184" t="s">
+        <v>10</v>
+      </c>
+      <c r="R184" t="s">
+        <v>10</v>
+      </c>
+      <c r="X184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F187" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F188" t="s">
+        <v>3</v>
+      </c>
+      <c r="L188" t="s">
+        <v>2</v>
+      </c>
+      <c r="R188" t="s">
+        <v>2</v>
+      </c>
+      <c r="X188" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F189" t="s">
+        <v>3</v>
+      </c>
+      <c r="L189" t="s">
+        <v>3</v>
+      </c>
+      <c r="R189" t="s">
+        <v>3</v>
+      </c>
+      <c r="X189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F190" t="s">
+        <v>3</v>
+      </c>
+      <c r="L190" t="s">
+        <v>3</v>
+      </c>
+      <c r="R190" t="s">
+        <v>3</v>
+      </c>
+      <c r="X190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L191" t="s">
+        <v>3</v>
+      </c>
+      <c r="R191" t="s">
+        <v>3</v>
+      </c>
+      <c r="X191" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F195" t="s">
+        <v>3</v>
+      </c>
+      <c r="L195" t="s">
+        <v>11</v>
+      </c>
+      <c r="R195" t="s">
+        <v>11</v>
+      </c>
+      <c r="X195" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F196" t="s">
+        <v>3</v>
+      </c>
+      <c r="L196" t="s">
+        <v>3</v>
+      </c>
+      <c r="R196" t="s">
+        <v>3</v>
+      </c>
+      <c r="X196" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L197" t="s">
+        <v>3</v>
+      </c>
+      <c r="R197" t="s">
+        <v>3</v>
+      </c>
+      <c r="X197" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F200" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F201" t="s">
+        <v>16</v>
+      </c>
+      <c r="L201" t="s">
+        <v>27</v>
+      </c>
+      <c r="R201" t="s">
+        <v>27</v>
+      </c>
+      <c r="X201" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F202" t="s">
+        <v>17</v>
+      </c>
+      <c r="L202" t="s">
+        <v>16</v>
+      </c>
+      <c r="R202" t="s">
+        <v>16</v>
+      </c>
+      <c r="X202" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L203" t="s">
+        <v>17</v>
+      </c>
+      <c r="R203" t="s">
+        <v>17</v>
+      </c>
+      <c r="X203" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F204" t="s">
+        <v>18</v>
+      </c>
+      <c r="L204" t="s">
+        <v>18</v>
+      </c>
+      <c r="R204" t="s">
+        <v>18</v>
+      </c>
+      <c r="X204" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F205" t="s">
+        <v>3</v>
+      </c>
+      <c r="L205" t="s">
+        <v>18</v>
+      </c>
+      <c r="R205" t="s">
+        <v>18</v>
+      </c>
+      <c r="X205" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F206" t="s">
+        <v>4</v>
+      </c>
+      <c r="L206" t="s">
+        <v>3</v>
+      </c>
+      <c r="R206" t="s">
+        <v>3</v>
+      </c>
+      <c r="X206" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F207" t="s">
+        <v>2</v>
+      </c>
+      <c r="L207" t="s">
+        <v>4</v>
+      </c>
+      <c r="R207" t="s">
+        <v>4</v>
+      </c>
+      <c r="X207" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F208" t="s">
+        <v>2</v>
+      </c>
+      <c r="L208" t="s">
+        <v>2</v>
+      </c>
+      <c r="R208" t="s">
+        <v>2</v>
+      </c>
+      <c r="X208" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L209" t="s">
+        <v>2</v>
+      </c>
+      <c r="R209" t="s">
+        <v>2</v>
+      </c>
+      <c r="X209" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F212" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L213" t="s">
+        <v>19</v>
+      </c>
+      <c r="R213" t="s">
+        <v>19</v>
+      </c>
+      <c r="X213" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F214" t="s">
+        <v>18</v>
+      </c>
+      <c r="L214" t="s">
+        <v>28</v>
+      </c>
+      <c r="R214" t="s">
+        <v>28</v>
+      </c>
+      <c r="X214" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F215" t="s">
+        <v>2</v>
+      </c>
+      <c r="L215" t="s">
+        <v>18</v>
+      </c>
+      <c r="R215" t="s">
+        <v>18</v>
+      </c>
+      <c r="X215" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F216" t="s">
+        <v>2</v>
+      </c>
+      <c r="L216" t="s">
+        <v>2</v>
+      </c>
+      <c r="R216" t="s">
+        <v>2</v>
+      </c>
+      <c r="X216" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F217" t="s">
+        <v>3</v>
+      </c>
+      <c r="L217" t="s">
+        <v>2</v>
+      </c>
+      <c r="R217" t="s">
+        <v>2</v>
+      </c>
+      <c r="X217" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F218" t="s">
+        <v>4</v>
+      </c>
+      <c r="L218" t="s">
+        <v>3</v>
+      </c>
+      <c r="R218" t="s">
+        <v>3</v>
+      </c>
+      <c r="X218" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L219" t="s">
+        <v>4</v>
+      </c>
+      <c r="R219" t="s">
+        <v>4</v>
+      </c>
+      <c r="X219" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F222" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F223" t="s">
+        <v>13</v>
+      </c>
+      <c r="L223" t="s">
+        <v>3</v>
+      </c>
+      <c r="X223" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F224" t="s">
+        <v>20</v>
+      </c>
+      <c r="L224" t="s">
+        <v>13</v>
+      </c>
+      <c r="R224" t="s">
+        <v>3</v>
+      </c>
+      <c r="X224" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L225" t="s">
+        <v>20</v>
+      </c>
+      <c r="R225" t="s">
+        <v>13</v>
+      </c>
+      <c r="X225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R226" t="s">
+        <v>20</v>
+      </c>
+      <c r="X226" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F228" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F229" t="s">
+        <v>4</v>
+      </c>
+      <c r="L229" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F230" t="s">
+        <v>3</v>
+      </c>
+      <c r="L230" t="s">
+        <v>4</v>
+      </c>
+      <c r="R230" t="s">
+        <v>3</v>
+      </c>
+      <c r="X230" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F231" t="s">
+        <v>21</v>
+      </c>
+      <c r="L231" t="s">
+        <v>3</v>
+      </c>
+      <c r="R231" t="s">
+        <v>4</v>
+      </c>
+      <c r="X231" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L232" t="s">
+        <v>21</v>
+      </c>
+      <c r="R232" t="s">
+        <v>3</v>
+      </c>
+      <c r="X232" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R233" t="s">
+        <v>21</v>
+      </c>
+      <c r="X233" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F235" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L236" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F237" t="s">
+        <v>13</v>
+      </c>
+      <c r="R237" t="s">
+        <v>22</v>
+      </c>
+      <c r="X237" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R239" t="s">
+        <v>13</v>
+      </c>
+      <c r="X239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F241" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F242" t="s">
+        <v>9</v>
+      </c>
+      <c r="L242" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F243" t="s">
+        <v>9</v>
+      </c>
+      <c r="L243" t="s">
+        <v>9</v>
+      </c>
+      <c r="R243" t="s">
+        <v>12</v>
+      </c>
+      <c r="X243" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F244" t="s">
+        <v>3</v>
+      </c>
+      <c r="L244" t="s">
+        <v>9</v>
+      </c>
+      <c r="R244" t="s">
+        <v>9</v>
+      </c>
+      <c r="X244" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L245" t="s">
+        <v>3</v>
+      </c>
+      <c r="R245" t="s">
+        <v>9</v>
+      </c>
+      <c r="X245" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R246" t="s">
+        <v>3</v>
+      </c>
+      <c r="X246" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F248" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L249" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R250" t="s">
+        <v>23</v>
+      </c>
+      <c r="X250" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F252" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L253" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R254" t="s">
+        <v>26</v>
+      </c>
+      <c r="X254" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F256" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L257" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R258" t="s">
+        <v>23</v>
+      </c>
+      <c r="X258" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L261" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R262" t="s">
+        <v>28</v>
+      </c>
+      <c r="X262" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F264" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L265" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R266" t="s">
+        <v>23</v>
+      </c>
+      <c r="X266" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F268" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L269" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R270" t="s">
+        <v>23</v>
+      </c>
+      <c r="X270" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F272" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L273" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R274" t="s">
+        <v>24</v>
+      </c>
+      <c r="X274" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R286" t="s">
+        <v>5</v>
+      </c>
+      <c r="X286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F288" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="289" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L289" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="290" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R290" t="s">
+        <v>23</v>
+      </c>
+      <c r="X290" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="292" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F292" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="293" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L293" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="294" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R294" t="s">
+        <v>23</v>
+      </c>
+      <c r="X294" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="308" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F308" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="309" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L309" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="310" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R310" t="s">
+        <v>23</v>
+      </c>
+      <c r="X310" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="312" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F312" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="313" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F313" t="s">
+        <v>24</v>
+      </c>
+      <c r="L313" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="314" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L314" t="s">
+        <v>24</v>
+      </c>
+      <c r="R314" t="s">
+        <v>24</v>
+      </c>
+      <c r="X314" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="315" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R315" t="s">
+        <v>24</v>
+      </c>
+      <c r="X315" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="319" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F319" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L320" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R321" t="s">
+        <v>10</v>
+      </c>
+      <c r="X321" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F326" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="327" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F327" t="s">
+        <v>9</v>
+      </c>
+      <c r="L327" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="328" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F328" t="s">
+        <v>9</v>
+      </c>
+      <c r="L328" t="s">
+        <v>9</v>
+      </c>
+      <c r="R328" t="s">
+        <v>13</v>
+      </c>
+      <c r="X328" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="329" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F329" t="s">
+        <v>10</v>
+      </c>
+      <c r="L329" t="s">
+        <v>9</v>
+      </c>
+      <c r="R329" t="s">
+        <v>9</v>
+      </c>
+      <c r="X329" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L330" t="s">
+        <v>10</v>
+      </c>
+      <c r="R330" t="s">
+        <v>9</v>
+      </c>
+      <c r="X330" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R331" t="s">
+        <v>10</v>
+      </c>
+      <c r="X331" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F333" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="334" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F334" t="s">
+        <v>9</v>
+      </c>
+      <c r="L334" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="335" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F335" t="s">
+        <v>9</v>
+      </c>
+      <c r="L335" t="s">
+        <v>9</v>
+      </c>
+      <c r="R335" t="s">
+        <v>25</v>
+      </c>
+      <c r="X335" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="336" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L336" t="s">
+        <v>9</v>
+      </c>
+      <c r="R336" t="s">
+        <v>9</v>
+      </c>
+      <c r="X336" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R337" t="s">
+        <v>9</v>
+      </c>
+      <c r="X337" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F339" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="340" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F340" t="s">
+        <v>9</v>
+      </c>
+      <c r="L340" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="341" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F341" t="s">
+        <v>9</v>
+      </c>
+      <c r="L341" t="s">
+        <v>9</v>
+      </c>
+      <c r="R341" t="s">
+        <v>25</v>
+      </c>
+      <c r="X341" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="342" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L342" t="s">
+        <v>9</v>
+      </c>
+      <c r="R342" t="s">
+        <v>9</v>
+      </c>
+      <c r="X342" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R343" t="s">
+        <v>9</v>
+      </c>
+      <c r="X343" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F345" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="346" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L346" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="347" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R347" t="s">
+        <v>25</v>
+      </c>
+      <c r="X347" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="349" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F349" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="350" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L350" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="351" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R351" t="s">
+        <v>24</v>
+      </c>
+      <c r="X351" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="354" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F354" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L355" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F356" t="s">
+        <v>6</v>
+      </c>
+      <c r="R356" t="s">
+        <v>5</v>
+      </c>
+      <c r="X356" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F357" t="s">
+        <v>2</v>
+      </c>
+      <c r="L357" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F358" t="s">
+        <v>2</v>
+      </c>
+      <c r="L358" t="s">
+        <v>2</v>
+      </c>
+      <c r="R358" t="s">
+        <v>6</v>
+      </c>
+      <c r="X358" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F359" t="s">
+        <v>4</v>
+      </c>
+      <c r="L359" t="s">
+        <v>2</v>
+      </c>
+      <c r="R359" t="s">
+        <v>2</v>
+      </c>
+      <c r="X359" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F360" t="s">
+        <v>7</v>
+      </c>
+      <c r="L360" t="s">
+        <v>4</v>
+      </c>
+      <c r="R360" t="s">
+        <v>2</v>
+      </c>
+      <c r="X360" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>7</v>
+      </c>
+      <c r="F361" t="s">
+        <v>7</v>
+      </c>
+      <c r="L361" t="s">
+        <v>7</v>
+      </c>
+      <c r="R361" t="s">
+        <v>4</v>
+      </c>
+      <c r="X361" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L362" t="s">
+        <v>7</v>
+      </c>
+      <c r="R362" t="s">
+        <v>7</v>
+      </c>
+      <c r="X362" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R363" t="s">
+        <v>7</v>
+      </c>
+      <c r="X363" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X371" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="33">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A333 A339 A345" xr:uid="{1967F09C-D32B-4B4C-9D6B-CE85B6F1688F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A333 A339 A345 F333 F339 F345 L334 L340 L346 R335 R341 R347 X335 X341 X347" xr:uid="{1967F09C-D32B-4B4C-9D6B-CE85B6F1688F}">
       <formula1>"1 large egg,100ml,125ml,250ml,1 small egg,1 extra large egg,1 medium egg,50g,1 jumbo egg,2 large eggs,1 pee wee egg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A312:A313" xr:uid="{B2BFEE3F-FEA5-4EE2-972F-EE64D46A0BF2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A312:A313 F312:F313 L313:L314 R314:R315 X314:X315" xr:uid="{B2BFEE3F-FEA5-4EE2-972F-EE64D46A0BF2}">
       <formula1>"100ml,125ml,250ml,140g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A203 A288" xr:uid="{6A261BAE-2410-482A-BF09-85E3D89B2897}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A203 A288 F203 F288 L204 L289 R204 R290 X204 X290" xr:uid="{6A261BAE-2410-482A-BF09-85E3D89B2897}">
       <formula1>"100ml mashed,100ml slices,125ml slices,250ml slices,125ml mashed,250ml mashed,85g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A284" xr:uid="{C84D8D1E-4765-4ABE-8E54-599B47348C65}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A284 F284 L285 R286 X286" xr:uid="{C84D8D1E-4765-4ABE-8E54-599B47348C65}">
       <formula1>"100ml,125ml,250ml,1 small (10cm long),1 medium (11.5cm long),1 large (13cm long),30g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A264" xr:uid="{EAC6760D-F092-4D83-B671-D74A5E293CC0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A264 F264 L265 R266 X266" xr:uid="{EAC6760D-F092-4D83-B671-D74A5E293CC0}">
       <formula1>"1 beet (5 cm dia),100ml,125ml,250ml,85g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A256" xr:uid="{9273B96D-AB59-4DB1-98E7-E38C36C28767}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A256 F256 L257 R258 X258" xr:uid="{9273B96D-AB59-4DB1-98E7-E38C36C28767}">
       <formula1>"1 leaf,100ml shredded,125ml shredded,250ml shredded,85g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A248" xr:uid="{90329298-6947-460B-9821-016FF823E8AF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A248 F248 L249 R250 X250" xr:uid="{90329298-6947-460B-9821-016FF823E8AF}">
       <formula1>"100ml chopped,125ml chopped,250ml chopped,85g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A231" xr:uid="{80022AB6-9694-40C8-BD51-3BD77BB40738}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A231 F231 L232 R233 X233" xr:uid="{80022AB6-9694-40C8-BD51-3BD77BB40738}">
       <formula1>"100ml,125ml,250ml,1 floweret,1 large head (15cm to 18cm dia),1 medium head (13cm to 15cm dia),1 small head  (10cm dia),85g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A214 A235" xr:uid="{74479626-96C8-472E-8C39-567119A8DFE8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A214 A235 F214 F235 L215 L236 R215 R237 X215 X237" xr:uid="{74479626-96C8-472E-8C39-567119A8DFE8}">
       <formula1>"1 large,1 medium,1 medium slice,100ml chopped,15ml chopped,1 small,125ml chopped,250ml chopped,1 large slice,1 thin slice,85g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A212" xr:uid="{8BC26460-638E-4C11-9B96-2419BABC31E3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A212 F212 L213 R213 X213" xr:uid="{8BC26460-638E-4C11-9B96-2419BABC31E3}">
       <formula1>"100ml slices,125ml slices,250ml slices,1 cucumber (21cm long),85g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A204 A268" xr:uid="{2C8A3FB7-3BF9-4E8B-BC1E-5158AB376EDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A204 A268 F204 F268 L205 L269 R205 R270 X205 X270" xr:uid="{2C8A3FB7-3BF9-4E8B-BC1E-5158AB376EDC}">
       <formula1>"1 medium,1 slice,100ml chopped,100ml grated,100ml slices,125ml slices,250ml slices,125ml chopped,250ml chopped,125ml grated,250ml grated,1 large (18.4cm to 21.6cm long),1 small (14cm long),1 large strip (7.6cm long),1 medium strip,1 thin strip,85g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A202" xr:uid="{F70D886E-ACEE-474B-ACC3-EE817310AF0B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A202 F202 L203 R203 X203" xr:uid="{F70D886E-ACEE-474B-ACC3-EE817310AF0B}">
       <formula1>"1 bulb,100ml slices,125ml slices,250ml slices,85g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A201" xr:uid="{D9C19C2C-1A6C-4A81-A659-C878C2A6BFC9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A201 F201 L202 R202 X202" xr:uid="{D9C19C2C-1A6C-4A81-A659-C878C2A6BFC9}">
       <formula1>"1 leaf,100ml chopped,100ml shredded,1 (0.8cm x 7.6cm dia) + liquid,125ml shredded,250ml shredded,125ml chopped,250ml chopped,1 small (10.2cm dia),1 medium (12.7cm dia),1 large (14cm dia),85g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A200" xr:uid="{93FFB8CE-FF18-4A86-811C-CB678EC5F721}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A200 F200 L201 R201 X201" xr:uid="{93FFB8CE-FF18-4A86-811C-CB678EC5F721}">
       <formula1>"1 leaf,100ml chopped,100ml shredded,125ml shredded,250ml shredded,125ml chopped,250ml chopped,85g,1 leaf, large,1 leaf, medium,1 head, large (18cm dia),1 head, medium (14.5cm  dia),1 head, small (10.5cm dia)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A181" xr:uid="{AF07358A-D9F0-42B9-B0F9-3C81F66F9C69}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A181 F181 L182 R182 X182" xr:uid="{AF07358A-D9F0-42B9-B0F9-3C81F66F9C69}">
       <formula1>"100ml,15ml,250ml"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A155 A292" xr:uid="{EF8FE462-E9FF-42E8-A2F5-4FC8E11022AB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A155 A292 F155 F292 L156 L293 R156 R294 X156 X294" xr:uid="{EF8FE462-E9FF-42E8-A2F5-4FC8E11022AB}">
       <formula1>"100ml,125ml,250ml,85g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A151" xr:uid="{6B598FEF-9562-4C57-B4FB-4F4778CEAA11}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A151 F151 L152 R152 X152" xr:uid="{6B598FEF-9562-4C57-B4FB-4F4778CEAA11}">
       <formula1>"1 large,1 medium,100ml,125ml,250ml,1 small"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A150" xr:uid="{09AB2805-A321-4973-92D3-1DB866A62312}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A150 F150 L151 R151 X151" xr:uid="{09AB2805-A321-4973-92D3-1DB866A62312}">
       <formula1>"1 piece,100ml,125ml,250ml,60ml,30g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A349 A112 A272 A241 A171" xr:uid="{9D39E4CE-E4D0-4C7F-849D-48DE19FC619D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A349 A112 A272 A241 A171 F349 F112 F272 F241 F171 L350 L113 L273 L242 L172 R351 R113 R274 R243 R172 X351 X113 X274 X243 X172" xr:uid="{9D39E4CE-E4D0-4C7F-849D-48DE19FC619D}">
       <formula1>"1 fruit,100ml cubes,100ml puree,100ml slices,125ml slices,250ml slices,125ml puree,250ml puree,125ml cubes,250ml cubes,140g,1/2 fruit"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A100" xr:uid="{D896537E-3AA3-4002-A8C2-786A2D9C1E25}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A100 F100 L101 R101 X101" xr:uid="{D896537E-3AA3-4002-A8C2-786A2D9C1E25}">
       <formula1>"30ml,5 leaves,0.5g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A96 A252 A194 A176 A161 A144 A120 A107" xr:uid="{90E110DC-93B5-43CD-A364-A0AB564BF2A6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A96 A252 A194 A176 A161 A144 A120 A107 F96 F252 F194 F144 F161 F132 F120 F107 F176 F187 L97 L253 L195 L145 L162 L133 L121 L108 L177 L188 R97 R254 R195 R145 R162 R133 R121 R108 R177 R188 X97 X254 X195 X145 X162 X133 X121 X108 X177 X188" xr:uid="{90E110DC-93B5-43CD-A364-A0AB564BF2A6}">
       <formula1>""</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A54 A63" xr:uid="{CD8A0E22-F982-4097-B8FA-4EB48194ED82}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A54 A63 F54 F63 L54 L63 R54 R63 X54 X63" xr:uid="{CD8A0E22-F982-4097-B8FA-4EB48194ED82}">
       <formula1>"100ml,250ml,100g,1 food guide serving = 75g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A45" xr:uid="{7C5D3B8E-E31F-48A7-A678-F588A697B271}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A45 F45 L45 R45 X45" xr:uid="{7C5D3B8E-E31F-48A7-A678-F588A697B271}">
       <formula1>"1 breast,100ml chopped or diced,250ml chopped or diced,100g,1 food guide serving = 75g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A361 A29 A114 A101 A139 A126 A41" xr:uid="{A14FE016-02B7-4F4D-A3C7-004536A66276}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A361 A29 A114 A101 A139 A126 A41 F361 F29 F114 F101 F139 F126 F41 L362 L29 L115 L102 L140 L127 L41 R363 R29 R115 R102 R140 R127 R41 X363 X29 X115 X102 X140 X127 X41" xr:uid="{A14FE016-02B7-4F4D-A3C7-004536A66276}">
       <formula1>"100ml,125ml,15ml,5ml"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A360 A28 A102 A91 A162 A137 A127 A115 A40" xr:uid="{E2166295-6072-423A-BDA1-F69565AAC7F2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A360 A28 A102 A91 A162 A137 A127 A115 A40 F360 F28 F102 F91 F162 F137 F127 F115 F40 L361 L28 L103 L92 L163 L138 L128 L116 L40 R362 R28 R103 R92 R163 R138 R128 R116 R40 X362 X28 X103 X92 X163 X138 X128 X116 X40" xr:uid="{E2166295-6072-423A-BDA1-F69565AAC7F2}">
       <formula1>"1 bulb,100ml,125ml,250ml,5ml,1 clove,4g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A357 A25 A94 A90 A326 A244 A216 A208 A172 A164 A156 A142 A130 A118 A105 A37" xr:uid="{1A23A222-99BB-4A9C-B2CF-83351140FCB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A357 A25 A94 A90 A326 A244 A216 A208 A172 A164 A156 A142 A130 A118 A105 A37 F357 F25 F94 F90 F326 F244 F216 F208 F172 F164 F156 F142 F130 F118 F105 F37 L358 L25 L95 L91 L327 L245 L217 L209 L173 L165 L157 L143 L131 L119 L106 L37 R359 R25 R95 R91 R328 R246 R217 R209 R173 R165 R157 R143 R131 R119 R106 R37 X359 X25 X95 X91 X328 X246 X217 X209 X173 X165 X157 X143 X131 X119 X106 X37" xr:uid="{1A23A222-99BB-4A9C-B2CF-83351140FCB5}">
       <formula1>"100ml,125ml,15ml,250ml,5ml"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A356 A24 A36" xr:uid="{B763B8A3-B01E-4D2F-B2BB-BBC9E9425F29}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A356 A24 A36 F356 F24 F36 L357 L24 L36 R358 R24 R36 X358 X24 X36" xr:uid="{B763B8A3-B01E-4D2F-B2BB-BBC9E9425F29}">
       <formula1>"100ml,125ml,15ml,250ml,10 sprigs,4g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A354 A22 A34" xr:uid="{9D1A9FE0-2C87-4F7F-B624-B1B32B47B254}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A354 A22 A34 F354 F22 F34 L355 L22 L34 R356 R22 R34 X356 X22 X34" xr:uid="{9D1A9FE0-2C87-4F7F-B624-B1B32B47B254}">
       <formula1>"1 pepper,100ml chopped or diced,125ml chopped or diced,250ml chopped or diced,30g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A58:A59 A49:A50 A329 A319 A230 A195 A188:A189 A183 A125 A76:A77 A67:A68 A16:A17 A8:A9" xr:uid="{333EF87A-079A-449F-BE9E-59F492963160}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A58:A59 A49:A50 A329 A319 A230 A195 A188:A189 A183 A125 A76:A77 A67:A68 A16:A17 A8:A9 F58:F59 F49:F50 F329 F319 F230 F195 F188:F189 F183 F125 F76:F77 F67:F68 F16:F17 F8:F9 L58:L59 L49:L50 L330 L320 L231 L196 L189:L190 L184 L126 L77:L78 L67:L68 L16:L17 L8:L9 R58:R59 R49:R50 R331 R321 R232 R196 R189:R190 R184 R126 R77:R78 R67:R68 R16:R17 R8:R9 X58:X59 X49:X50 X331 X321 X232 X196 X189:X190 X184 X126 X77:X78 X67:X68 X16:X17 X8:X9" xr:uid="{333EF87A-079A-449F-BE9E-59F492963160}">
       <formula1>"15ml,5ml,0.5g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A39 A27 A359 A341 A335 A328 A243 A229 A224 A218 A206 A175 A166 A153 A141 A138 A129 A117 A104 A93 A75 A66 A57 A15 A7" xr:uid="{2D433DFA-DBA6-4447-8DBD-C8C0842C2040}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A39 A27 A359 A341 A335 A328 A243 A229 A224 A218 A206 A175 A166 A153 A141 A138 A129 A117 A104 A93 A75 A66 A57 A15 A7 F48 F39 F27 F359 F341 F335 F328 F243 F229 F224 F218 F206 F175 F166 F153 F141 F138 F129 F117 F104 F93 F75 F66 F57 F15 F7 L48 L39 L27 L360 L342 L336 L329 L244 L230 L225 L219 L207 L176 L167 L154 L142 L139 L130 L118 L105 L94 L76 L66 L57 L15 L7 R48 R39 R27 R361 R343 R337 R330 R245 R231 R226 R219 R207 R176 R167 R154 R142 R139 R130 R118 R105 R94 R76 R66 R57 R15 R7 X48 X39 X27 X361 X343 X337 X330 X245 X231 X226 X219 X207 X176 X167 X154 X142 X139 X130 X118 X105 X94 X76 X66 X57 X15 X7" xr:uid="{2D433DFA-DBA6-4447-8DBD-C8C0842C2040}">
       <formula1>"100ml whole,1 dash,0.5g,15ml ground,15ml whole,5 ml ground,5ml whole"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A47 A26 A358 A38 A340 A334 A327 A242 A228 A223 A217 A205 A174 A163 A152 A140 A128 A116 A103 A92 A74 A65 A56 A14 A6" xr:uid="{37330FF0-1688-46FB-AAA9-6697DA383C25}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A47 A26 A358 A38 A340 A334 A327 A242 A228 A223 A217 A205 A174 A163 A152 A140 A128 A116 A103 A92 A74 A65 A56 A14 A6 F47 F26 F358 F38 F340 F334 F327 F242 F228 F223 F217 F205 F174 F163 F152 F140 F128 F116 F103 F92 F74 F65 F56 F14 F6 L47 L26 L359 L38 L341 L335 L328 L243 L229 L224 L218 L206 L175 L164 L153 L141 L129 L117 L104 L93 L75 L65 L56 L14 L6 R47 R26 R360 R38 R342 R336 R329 R244 R230 R225 R218 R206 R175 R164 R153 R141 R129 R117 R104 R93 R75 R65 R56 R14 R6 X47 X26 X360 X38 X342 X336 X329 X244 X230 X225 X218 X206 X175 X164 X153 X141 X129 X117 X104 X93 X75 X65 X56 X14 X6" xr:uid="{37330FF0-1688-46FB-AAA9-6697DA383C25}">
       <formula1>"15ml,250ml,5ml,1 dash,1g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A46 A237 A222 A215 A207 A196 A190 A165 A154 A143 A131 A119 A106 A95 A64 A55 A5" xr:uid="{0A3B7721-690C-4FBC-B202-DF7499470DA6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A46 A237 A222 A215 A207 A196 A190 A165 A154 A143 A131 A119 A106 A95 A64 A55 A5 F46 F237 F222 F215 F207 F196 F190 F165 F154 F143 F131 F119 F106 F95 F64 F55 F5 L46 L238 L223 L216 L208 L197 L191 L166 L155 L144 L132 L120 L107 L96 L64 L55 L5 R46 R239 R224 R216 R208 R197 R191 R166 R155 R144 R132 R120 R107 R96 R64 R55 R5 R74 X46 X239 X224 X216 X208 X197 X191 X166 X155 X144 X132 X120 X107 X96 X64 X55 X5 X74" xr:uid="{0A3B7721-690C-4FBC-B202-DF7499470DA6}">
       <formula1>"100ml,15ml,250ml,5ml,10ml"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{2ADAE700-D1B0-43C3-8CC3-ED05CB5A3657}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 F4 L4 R4 X4" xr:uid="{2ADAE700-D1B0-43C3-8CC3-ED05CB5A3657}">
       <formula1>"100ml flaked,250ml,1/2 fillet,100g,1 food guide serving = 75g"</formula1>
     </dataValidation>
   </dataValidations>
